--- a/DATA_goal/Junction_Flooding_422.xlsx
+++ b/DATA_goal/Junction_Flooding_422.xlsx
@@ -450,7 +450,7 @@
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
@@ -464,7 +464,7 @@
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
@@ -863,103 +863,103 @@
         <v>44781.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.9</v>
       </c>
       <c r="F4" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="N4" s="4" t="n">
         <v>0.17</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="O4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="T4" s="4" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X4" s="4" t="n">
         <v>0.88</v>
       </c>
-      <c r="U4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="V4" s="4" t="n">
+      <c r="Y4" s="4" t="n">
         <v>0.14</v>
       </c>
-      <c r="W4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.2</v>
+        <v>1.99</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.82</v>
+        <v>18.17</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.26</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.06</v>
+        <v>20.59</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.53</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.52</v>
+        <v>95.22</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.82</v>
+        <v>18.16</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.47</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.33</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.44</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.4</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.84</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.85</v>
+        <v>18.47</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.66</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_422.xlsx
+++ b/DATA_goal/Junction_Flooding_422.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.71527777778</v>
+        <v>45103.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>20.178</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>13.652</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.068</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>42.752</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>34.691</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>15.879</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>51.007</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>24.432</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>10.251</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>15.607</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>16.868</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>17.597</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>5.069</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>22.094</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>13.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.498</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.451</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>232.996</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>43.923</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>14.575</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>29.082</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>14.996</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>25.159</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>12.874</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>11.654</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>13.651</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>17.331</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.457</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>45.214</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>8.105</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>18.222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.72222222222</v>
+        <v>45103.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>0.842</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>0.294</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.291</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>1.753</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>1.011</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>0.765</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>10.351</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>1.163</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>0.394</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>0.237</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>0.529</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>0.289</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>0.752</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>1.083</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>1.012</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>1.436</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.629</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>4.313</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>2.762</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>0.694</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>1.697</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>0.716</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>4.238</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>0.613</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>0.757</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>0.828</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>0.474</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.266</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>10.074</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>0.237</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.72916666666</v>
+        <v>45103.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.39</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.83</v>
+        <v>9.098000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.9</v>
+        <v>26.997</v>
       </c>
       <c r="F4" s="4" t="n">
+        <v>21.972</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>34.244</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>15.125</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>6.544</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>10.849</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>11.334</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>9.775</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>13.747</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>8.411</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>1.024</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>141.419</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>27.144</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>9.023</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>18.038</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>9.557</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>1.69</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.14</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.92</v>
+        <v>16.63</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.63</v>
+        <v>7.97</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.99</v>
+        <v>7.153</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.11</v>
+        <v>8.388999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.66</v>
+        <v>11.251</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.51</v>
+        <v>30.602</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.67</v>
+        <v>5.018</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.73611111111</v>
+        <v>45103.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.59</v>
+        <v>24.41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.43</v>
+        <v>18.2</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.23</v>
+        <v>1.38</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>18.17</v>
+        <v>53.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>15.04</v>
+        <v>43.68</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.26</v>
+        <v>19.28</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>20.59</v>
+        <v>72.16</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.53</v>
+        <v>29.67</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.29</v>
+        <v>13.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.72</v>
+        <v>19.57</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.26</v>
+        <v>21.37</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.71</v>
+        <v>22.49</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.09</v>
+        <v>6.16</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.52</v>
+        <v>19.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.84</v>
+        <v>27.28</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.77</v>
+        <v>16.14</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.89</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.96</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>95.22</v>
+        <v>284.54</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>18.16</v>
+        <v>53.58</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.47</v>
+        <v>17.7</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>12.33</v>
+        <v>36.05</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.51</v>
+        <v>18.96</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.89</v>
+        <v>2.83</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.44</v>
+        <v>35.48</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.28</v>
+        <v>15.63</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.4</v>
+        <v>13.85</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.84</v>
+        <v>16.27</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>22.36</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>18.47</v>
+        <v>65.52</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.66</v>
+        <v>9.99</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.53</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.74304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>28.83</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>23.85</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>38.58</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.24</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>152.65</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>29.02</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>19.12</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>35.17</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.95</v>
+        <v>22.13</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_422.xlsx
+++ b/DATA_goal/Junction_Flooding_422.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45103.50694444445</v>
+        <v>44781.71527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>20.178</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.652</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.068</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>42.752</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>34.691</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.879</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>51.007</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>24.432</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.251</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.607</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.868</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>17.597</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.069</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.79</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>22.094</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.41</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.498</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.451</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>232.996</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>43.923</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.575</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>29.082</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.996</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.13</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>25.159</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.874</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.654</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.651</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>17.331</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.457</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>45.214</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.105</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>18.222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45103.51388888889</v>
+        <v>44781.72222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.842</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.294</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.291</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.753</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.011</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.765</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>10.351</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.163</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.394</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.237</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.529</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.289</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.752</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.083</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.012</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.436</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.629</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>4.313</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.762</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.694</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.697</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.716</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.6889999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.238</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.613</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.757</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.828</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.474</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.266</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>10.074</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.237</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45103.52083333334</v>
+        <v>44781.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.39</v>
+        <v>1.285</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.098000000000001</v>
+        <v>0.829</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>26.997</v>
+        <v>1.901</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>21.972</v>
+        <v>1.685</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9.83</v>
+        <v>0.204</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>34.244</v>
+        <v>2.399</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.125</v>
+        <v>2</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.544</v>
+        <v>1.804</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.73</v>
+        <v>2.539</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.849</v>
+        <v>0.829</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.334</v>
+        <v>0.867</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.136</v>
+        <v>0.169</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.775</v>
+        <v>0.738</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>13.747</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.411</v>
+        <v>1.214</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.024</v>
+        <v>0.734</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.709</v>
+        <v>1.029</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>141.419</v>
+        <v>8.792</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>27.144</v>
+        <v>2.109</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.023</v>
+        <v>1.385</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>18.038</v>
+        <v>1.439</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.557</v>
+        <v>0.876</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.69</v>
+        <v>0.14</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>16.63</v>
+        <v>0.923</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.97</v>
+        <v>0.631</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.153</v>
+        <v>1.995</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.388999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>11.251</v>
+        <v>2.659</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.773</v>
+        <v>0.886</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>30.602</v>
+        <v>2.508</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.018</v>
+        <v>0.673</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.28</v>
+        <v>0.8110000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45103.52777777778</v>
+        <v>44781.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.41</v>
+        <v>8.59</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>18.2</v>
+        <v>6.427</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>18.175</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>15.037</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>6.264</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>20.591</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>10.533</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>7.706</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>2.094</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>9.843</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>5.767</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>95.224</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>18.165</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>6.471</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>12.332</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>6.514</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>10.441</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>5.396</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>5.835</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>8.714</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>18.471</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>3.658</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>7.526</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.74304398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>28.83</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>38.58</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>152.65</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>29.02</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="Y6" s="4" t="n">
         <v>1.38</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>53.19</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>43.68</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>19.28</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>72.16</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>29.67</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>19.57</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>21.37</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>22.49</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>19.17</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>27.28</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>284.54</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>53.58</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>36.05</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>18.96</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>35.48</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>16.27</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>22.36</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>65.52</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>22.13</v>
+      <c r="Z6" s="4" t="n">
+        <v>19.12</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>35.17</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>11.95</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_422.xlsx
+++ b/DATA_goal/Junction_Flooding_422.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.71527777778</v>
+        <v>45103.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>20.178</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>13.652</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.068</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>42.752</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>34.691</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>15.879</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>51.007</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>24.432</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>10.251</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>15.607</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>16.868</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>17.597</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>5.069</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>22.094</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>13.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.498</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.451</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>232.996</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>43.923</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>14.575</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>29.082</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>14.996</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>25.159</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>12.874</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>11.654</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>13.651</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>17.331</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.457</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>45.214</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>8.105</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>18.222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.72222222222</v>
+        <v>45103.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>0.842</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>0.294</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.291</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>1.753</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>1.011</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>0.765</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>10.351</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>1.163</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>0.394</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>0.237</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>0.529</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>0.289</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>0.752</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>1.083</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>1.012</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>1.436</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.629</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>4.313</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>2.762</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>0.694</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>1.697</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>0.716</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>4.238</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>0.613</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>0.757</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>0.828</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>0.474</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.266</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>10.074</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>0.237</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.72916666666</v>
+        <v>45103.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.285</v>
+        <v>12.39</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.829</v>
+        <v>9.098000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.901</v>
+        <v>26.997</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.685</v>
+        <v>21.972</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.204</v>
+        <v>9.83</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.399</v>
+        <v>34.244</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2</v>
+        <v>15.125</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.804</v>
+        <v>6.544</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.539</v>
+        <v>9.73</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.829</v>
+        <v>10.849</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.867</v>
+        <v>11.334</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.169</v>
+        <v>3.136</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.738</v>
+        <v>9.775</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.8</v>
+        <v>13.747</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.214</v>
+        <v>8.411</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.734</v>
+        <v>1.024</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.029</v>
+        <v>0.709</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>8.792</v>
+        <v>141.419</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.109</v>
+        <v>27.144</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.385</v>
+        <v>9.023</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.439</v>
+        <v>18.038</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.876</v>
+        <v>9.557</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.69</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.923</v>
+        <v>16.63</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.631</v>
+        <v>7.97</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.995</v>
+        <v>7.153</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.11</v>
+        <v>8.388999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.659</v>
+        <v>11.251</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.886</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.508</v>
+        <v>30.602</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.673</v>
+        <v>5.018</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.8110000000000001</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.73611111111</v>
+        <v>45103.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.59</v>
+        <v>24.41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.427</v>
+        <v>18.2</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.227</v>
+        <v>1.38</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>18.175</v>
+        <v>53.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>15.037</v>
+        <v>43.68</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.264</v>
+        <v>19.28</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>20.591</v>
+        <v>72.16</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.533</v>
+        <v>29.67</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.29</v>
+        <v>13.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.72</v>
+        <v>19.57</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.26</v>
+        <v>21.37</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.706</v>
+        <v>22.49</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.094</v>
+        <v>6.16</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.52</v>
+        <v>19.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.843</v>
+        <v>27.28</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.767</v>
+        <v>16.14</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.526</v>
+        <v>0.89</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.745</v>
+        <v>0.96</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>95.224</v>
+        <v>284.54</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>18.165</v>
+        <v>53.58</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.471</v>
+        <v>17.7</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>12.332</v>
+        <v>36.05</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.514</v>
+        <v>18.96</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.885</v>
+        <v>2.83</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.441</v>
+        <v>35.48</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.28</v>
+        <v>15.63</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.396</v>
+        <v>13.85</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.835</v>
+        <v>16.27</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.714</v>
+        <v>22.36</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.474</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>18.471</v>
+        <v>65.52</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.658</v>
+        <v>9.99</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.526</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.74304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>28.83</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>23.85</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>38.58</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.24</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>152.65</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>29.02</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>19.12</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>35.17</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.95</v>
+        <v>22.13</v>
       </c>
     </row>
   </sheetData>
